--- a/public/template_report/qtn_template_2.xlsx
+++ b/public/template_report/qtn_template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="QTN MATERIAL" sheetId="2" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>Remark :</t>
   </si>
   <si>
-    <t>VAT 12%</t>
+    <t>VAT 2%</t>
   </si>
   <si>
     <t>Payment Term 30 days</t>
@@ -153,13 +153,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -262,6 +262,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -270,11 +278,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,16 +308,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +353,29 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -332,45 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,33 +398,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -434,73 +434,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,103 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +707,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -718,39 +727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,414 +756,438 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="59" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="60" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="60" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="59" applyFill="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="33" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="12" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1196,13 +1196,13 @@
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency [0] 2" xfId="1"/>
-    <cellStyle name="Heading 1 2" xfId="2"/>
-    <cellStyle name="Heading 2 2" xfId="3"/>
+    <cellStyle name="Phone" xfId="1"/>
+    <cellStyle name="Note 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Name" xfId="4"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Note 2" xfId="6"/>
-    <cellStyle name="Phone" xfId="7"/>
+    <cellStyle name="Heading 2 2" xfId="5"/>
+    <cellStyle name="Heading 1 2" xfId="6"/>
+    <cellStyle name="Currency [0] 2" xfId="7"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="10" builtinId="48"/>
@@ -1254,8 +1254,8 @@
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="60% - Accent3" xfId="57" builtinId="40"/>
     <cellStyle name="Percent" xfId="58" builtinId="5"/>
-    <cellStyle name="Explanatory Text 2" xfId="59"/>
-    <cellStyle name="Heading 3 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="59"/>
+    <cellStyle name="Explanatory Text 2" xfId="60"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="14"/>
